--- a/dados/cef/inadimplentes/pompeia.xlsx
+++ b/dados/cef/inadimplentes/pompeia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="150">
   <si>
     <t/>
   </si>
@@ -22,10 +22,10 @@
     <t>Folha No 1</t>
   </si>
   <si>
-    <t>Relatório de Inadimplência - Data de Referência: 05/03/2025</t>
-  </si>
-  <si>
-    <t>Impresso em: 05/03/2025 11:27:53</t>
+    <t>Relatório de Inadimplência - Data de Referência: 03/04/2025</t>
+  </si>
+  <si>
+    <t>Impresso em: 03/04/2025 16:47:56</t>
   </si>
   <si>
     <t>Título</t>
@@ -97,7 +97,7 @@
     <t>15/12/2024</t>
   </si>
   <si>
-    <t>80</t>
+    <t>109</t>
   </si>
   <si>
     <t>R</t>
@@ -118,16 +118,16 @@
     <t>0,00</t>
   </si>
   <si>
-    <t>306,09</t>
-  </si>
-  <si>
-    <t>569,03</t>
-  </si>
-  <si>
-    <t>426,77</t>
-  </si>
-  <si>
-    <t>22.334,27</t>
+    <t>416,33</t>
+  </si>
+  <si>
+    <t>779,30</t>
+  </si>
+  <si>
+    <t>428,97</t>
+  </si>
+  <si>
+    <t>22.656,98</t>
   </si>
   <si>
     <t>006/032</t>
@@ -139,22 +139,22 @@
     <t>15/01/2025</t>
   </si>
   <si>
-    <t>49</t>
+    <t>78</t>
   </si>
   <si>
     <t>1.583,74</t>
   </si>
   <si>
-    <t>16,68</t>
-  </si>
-  <si>
-    <t>26,14</t>
-  </si>
-  <si>
-    <t>32,01</t>
-  </si>
-  <si>
-    <t>1.658,57</t>
+    <t>24,93</t>
+  </si>
+  <si>
+    <t>41,83</t>
+  </si>
+  <si>
+    <t>32,17</t>
+  </si>
+  <si>
+    <t>1.682,67</t>
   </si>
   <si>
     <t>007/032</t>
@@ -163,37 +163,58 @@
     <t>15/02/2025</t>
   </si>
   <si>
-    <t>18</t>
+    <t>47</t>
   </si>
   <si>
     <t>1.591,66</t>
   </si>
   <si>
-    <t>8,81</t>
-  </si>
-  <si>
-    <t>9,60</t>
-  </si>
-  <si>
-    <t>1.642,08</t>
-  </si>
-  <si>
-    <t>JULIO CESAR SILVA MAGALHAES JUNIOR: 3 Parcelas</t>
-  </si>
-  <si>
-    <t>25.634,92</t>
-  </si>
-  <si>
-    <t>24.207,78</t>
-  </si>
-  <si>
-    <t>331,58</t>
-  </si>
-  <si>
-    <t>604,77</t>
-  </si>
-  <si>
-    <t>490,79</t>
+    <t>17,03</t>
+  </si>
+  <si>
+    <t>25,20</t>
+  </si>
+  <si>
+    <t>1.666,06</t>
+  </si>
+  <si>
+    <t>008/032</t>
+  </si>
+  <si>
+    <t>15/03/2025</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1.604,87</t>
+  </si>
+  <si>
+    <t>3,85</t>
+  </si>
+  <si>
+    <t>10,19</t>
+  </si>
+  <si>
+    <t>1.651,08</t>
+  </si>
+  <si>
+    <t>JULIO CESAR SILVA MAGALHAES JUNIOR: 4 Parcelas</t>
+  </si>
+  <si>
+    <t>27.656,79</t>
+  </si>
+  <si>
+    <t>25.812,65</t>
+  </si>
+  <si>
+    <t>462,14</t>
+  </si>
+  <si>
+    <t>856,52</t>
+  </si>
+  <si>
+    <t>525,48</t>
   </si>
   <si>
     <t>Contrato: 0040-0</t>
@@ -214,31 +235,70 @@
     <t>Unidade: Up Pompeia, Quarto pavimento, Apartamento 401</t>
   </si>
   <si>
+    <t>007/030</t>
+  </si>
+  <si>
     <t>25/02/2025</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>007/030</t>
+    <t>37</t>
   </si>
   <si>
     <t>318,33</t>
   </si>
   <si>
-    <t>0,88</t>
-  </si>
-  <si>
-    <t>0,85</t>
-  </si>
-  <si>
-    <t>6,38</t>
-  </si>
-  <si>
-    <t>326,44</t>
-  </si>
-  <si>
-    <t>LAURA LIMA FERNANDES: 1 Parcela</t>
+    <t>2,98</t>
+  </si>
+  <si>
+    <t>3,96</t>
+  </si>
+  <si>
+    <t>6,43</t>
+  </si>
+  <si>
+    <t>331,70</t>
+  </si>
+  <si>
+    <t>008/030</t>
+  </si>
+  <si>
+    <t>25/03/2025</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>374,47</t>
+  </si>
+  <si>
+    <t>0,40</t>
+  </si>
+  <si>
+    <t>1,12</t>
+  </si>
+  <si>
+    <t>7,50</t>
+  </si>
+  <si>
+    <t>383,49</t>
+  </si>
+  <si>
+    <t>LAURA LIMA FERNANDES: 2 Parcelas</t>
+  </si>
+  <si>
+    <t>715,19</t>
+  </si>
+  <si>
+    <t>692,80</t>
+  </si>
+  <si>
+    <t>3,38</t>
+  </si>
+  <si>
+    <t>5,08</t>
+  </si>
+  <si>
+    <t>13,93</t>
   </si>
   <si>
     <t>Cliente: MARIO ANDRE DOMINGOS MENDONCA</t>
@@ -259,22 +319,22 @@
     <t>20/12/2024</t>
   </si>
   <si>
-    <t>75</t>
+    <t>104</t>
   </si>
   <si>
     <t>3.685,45</t>
   </si>
   <si>
-    <t>48,54</t>
-  </si>
-  <si>
-    <t>93,35</t>
-  </si>
-  <si>
-    <t>74,68</t>
-  </si>
-  <si>
-    <t>3.902,02</t>
+    <t>70,50</t>
+  </si>
+  <si>
+    <t>130,21</t>
+  </si>
+  <si>
+    <t>75,12</t>
+  </si>
+  <si>
+    <t>3.961,28</t>
   </si>
   <si>
     <t>007/031</t>
@@ -283,19 +343,19 @@
     <t>20/01/2025</t>
   </si>
   <si>
-    <t>44</t>
+    <t>73</t>
   </si>
   <si>
     <t>3.700,19</t>
   </si>
   <si>
-    <t>33,86</t>
-  </si>
-  <si>
-    <t>54,77</t>
-  </si>
-  <si>
-    <t>3.863,50</t>
+    <t>55,78</t>
+  </si>
+  <si>
+    <t>91,40</t>
+  </si>
+  <si>
+    <t>3.922,49</t>
   </si>
   <si>
     <t>008/031</t>
@@ -304,55 +364,94 @@
     <t>20/02/2025</t>
   </si>
   <si>
-    <t>13</t>
+    <t>42</t>
   </si>
   <si>
     <t>3.718,69</t>
   </si>
   <si>
-    <t>15,43</t>
-  </si>
-  <si>
-    <t>16,18</t>
-  </si>
-  <si>
-    <t>3.824,98</t>
-  </si>
-  <si>
-    <t>MARIO ANDRE DOMINGOS MENDONCA: 3 Parcelas</t>
-  </si>
-  <si>
-    <t>11.590,50</t>
-  </si>
-  <si>
-    <t>11.104,33</t>
-  </si>
-  <si>
-    <t>97,83</t>
-  </si>
-  <si>
-    <t>164,30</t>
-  </si>
-  <si>
-    <t>224,04</t>
+    <t>37,31</t>
+  </si>
+  <si>
+    <t>52,58</t>
+  </si>
+  <si>
+    <t>3.883,70</t>
+  </si>
+  <si>
+    <t>20/03/2025</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>009/031</t>
+  </si>
+  <si>
+    <t>3.749,56</t>
+  </si>
+  <si>
+    <t>6,50</t>
+  </si>
+  <si>
+    <t>17,53</t>
+  </si>
+  <si>
+    <t>3.848,71</t>
+  </si>
+  <si>
+    <t>001/002</t>
+  </si>
+  <si>
+    <t>26.782,56</t>
+  </si>
+  <si>
+    <t>46,42</t>
+  </si>
+  <si>
+    <t>125,20</t>
+  </si>
+  <si>
+    <t>536,58</t>
+  </si>
+  <si>
+    <t>27.490,76</t>
+  </si>
+  <si>
+    <t>MARIO ANDRE DOMINGOS MENDONCA: 5 Parcelas</t>
+  </si>
+  <si>
+    <t>43.106,94</t>
+  </si>
+  <si>
+    <t>41.636,45</t>
+  </si>
+  <si>
+    <t>216,51</t>
+  </si>
+  <si>
+    <t>416,92</t>
+  </si>
+  <si>
+    <t>837,06</t>
   </si>
   <si>
     <t>Total: 4 Contratos em Atraso</t>
   </si>
   <si>
-    <t>59.838,22</t>
-  </si>
-  <si>
-    <t>761,87</t>
-  </si>
-  <si>
-    <t>1.374,69</t>
-  </si>
-  <si>
-    <t>1.212,00</t>
-  </si>
-  <si>
-    <t>63.186,78</t>
+    <t>93.954,55</t>
+  </si>
+  <si>
+    <t>1.144,17</t>
+  </si>
+  <si>
+    <t>2.135,04</t>
+  </si>
+  <si>
+    <t>1.901,95</t>
+  </si>
+  <si>
+    <t>99.135,71</t>
   </si>
   <si>
     <t>Total Geral: 4 Contratos em Atraso</t>
@@ -737,7 +836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="O4:K38"/>
+  <dimension ref="O4:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -956,130 +1055,130 @@
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>61</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:14">
@@ -1087,31 +1186,31 @@
         <v>29</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>45</v>
@@ -1120,363 +1219,568 @@
         <v>33</v>
       </c>
       <c r="O21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="2:14">
+      <c r="C23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="E23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="1" t="s">
+      <c r="H23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="J23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="2" t="s">
-        <v>62</v>
+      <c r="M23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="L24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="O24" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="H27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="O27" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="2" t="s">
-        <v>77</v>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="2:14">
-      <c r="C30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>33</v>
+      <c r="B30" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="2:14">
-      <c r="C31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K31" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="H32" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="E33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I33" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="2" t="s">
-        <v>113</v>
+      <c r="C35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="2:14">
-      <c r="I36" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>33</v>
+      <c r="C36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="2:14">
-      <c r="I37" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>112</v>
+      <c r="B37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="2:14">
-      <c r="I38" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>112</v>
+      <c r="B38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="I40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="I41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="I43" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1701,13 +2005,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB52F34-6344-431C-AC76-DAF29B67EA73}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{836F3F5B-3F0B-4A84-94E0-124B54C9E719}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C682D81-3FA1-437E-A3CB-6B9184844A5B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{878C0FAB-0EE9-4A71-AA06-30ACD38FEB35}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B3C94F-8898-4C3D-A87F-216D984487B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A62B3B6-211D-4377-A4F6-660FCC6E7ED6}"/>
 </file>